--- a/cp1/terpylo_dudchenko_fb-06_cp1/crossed_bigrams(text_without_space).xlsx
+++ b/cp1/terpylo_dudchenko_fb-06_cp1/crossed_bigrams(text_without_space).xlsx
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>0.00165770915031368</v>
+        <v>0.003315418300627361</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -454,7 +454,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.432485479993097E-05</v>
+        <v>0.0001886497095998619</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -462,7 +462,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.0009874006076928943</v>
+        <v>0.001974801215385789</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -470,7 +470,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.0008248407515483324</v>
+        <v>0.001649681503096665</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.004973127450941041</v>
+        <v>0.009946254901882081</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -486,7 +486,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.0002448432401189698</v>
+        <v>0.0004896864802379395</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -502,7 +502,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.020735412761551E-06</v>
+        <v>1.20414708255231E-05</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -510,7 +510,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.0006863638370548168</v>
+        <v>0.001372727674109634</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.002083174452815497</v>
+        <v>0.004166348905630993</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -534,7 +534,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.0007766748682462401</v>
+        <v>0.00155334973649248</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -542,7 +542,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.0006883707488590707</v>
+        <v>0.001376741497718141</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -550,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.0005438730989527934</v>
+        <v>0.001087746197905587</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -558,7 +558,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.002536736520576867</v>
+        <v>0.005073473041153733</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -566,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.01210167817965072</v>
+        <v>0.02420335635930143</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -574,7 +574,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.003907457282882247</v>
+        <v>0.007814914565764493</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -582,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.007070350286386314</v>
+        <v>0.01414070057277263</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -590,7 +590,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.001190098699922533</v>
+        <v>0.002380197399845066</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -598,7 +598,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.01443170278438944</v>
+        <v>0.02886340556877887</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -606,7 +606,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.001517225324015911</v>
+        <v>0.003034450648031822</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -614,7 +614,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>5.217970691060011E-05</v>
+        <v>0.0001043594138212002</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -622,7 +622,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.003455902126925E-05</v>
+        <v>2.00691180425385E-05</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -630,7 +630,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>2.608985345530005E-05</v>
+        <v>5.217970691060011E-05</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -638,7 +638,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>8.0276472170154E-06</v>
+        <v>1.60552944340308E-05</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -646,7 +646,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.0001505183853190388</v>
+        <v>0.0003010367706380775</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -662,7 +662,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>3.21105888680616E-05</v>
+        <v>6.42211777361232E-05</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -670,7 +670,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.0004354998615230855</v>
+        <v>0.000870999723046171</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -678,7 +678,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>9.833867840843866E-05</v>
+        <v>0.0001966773568168773</v>
       </c>
     </row>
   </sheetData>
